--- a/input_data/admin_data/COL/_clean/total-pos-COL.xlsx
+++ b/input_data/admin_data/COL/_clean/total-pos-COL.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4155" uniqueCount="4155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="4155">
   <si>
     <t>poptot</t>
   </si>
@@ -12539,51 +12539,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3878</v>
+        <v>4127</v>
       </c>
       <c r="B1" t="s">
-        <v>3879</v>
+        <v>4128</v>
       </c>
       <c r="C1" t="s">
-        <v>3880</v>
+        <v>4129</v>
       </c>
       <c r="D1" t="s">
-        <v>3881</v>
+        <v>4130</v>
       </c>
       <c r="E1" t="s">
-        <v>3882</v>
+        <v>4131</v>
       </c>
       <c r="F1" t="s">
-        <v>3883</v>
+        <v>4132</v>
       </c>
       <c r="G1" t="s">
-        <v>3884</v>
+        <v>4133</v>
       </c>
       <c r="H1" t="s">
-        <v>3885</v>
+        <v>4134</v>
       </c>
       <c r="I1" t="s">
-        <v>3886</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B2" s="2">
-        <v>29329152</v>
+        <v>28813132</v>
       </c>
       <c r="C2" s="2">
-        <v>115124677378048</v>
+        <v>114622476582912</v>
       </c>
       <c r="D2" s="2">
-        <v>42413960</v>
+        <v>42046980</v>
       </c>
       <c r="E2" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0041211112402379513</v>
+        <v>0.0040332088246941566</v>
       </c>
       <c r="G2" s="1">
         <v>0.97000002861022949</v>
@@ -12592,228 +12592,228 @@
         <v>2014</v>
       </c>
       <c r="I2" t="s">
-        <v>3887</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B3" s="2">
-        <v>55185948</v>
+        <v>54872392</v>
       </c>
       <c r="C3" s="2">
-        <v>151415381032960</v>
+        <v>150909262757888</v>
       </c>
       <c r="D3" s="2">
-        <v>74508024</v>
+        <v>74131376</v>
       </c>
       <c r="E3" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.011523685418069363</v>
+        <v>0.011428480967879295</v>
       </c>
       <c r="G3" s="1">
         <v>0.98000001907348633</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>3888</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B4" s="2">
-        <v>99640784</v>
+        <v>98866336</v>
       </c>
       <c r="C4" s="2">
-        <v>228594164957184</v>
+        <v>227688631500800</v>
       </c>
       <c r="D4" s="2">
-        <v>102754616</v>
+        <v>102400456</v>
       </c>
       <c r="E4" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F4" s="1">
-        <v>0.016545167192816734</v>
+        <v>0.016619227826595306</v>
       </c>
       <c r="G4" s="1">
         <v>0.99000000953674316</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>3889</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B5" s="2">
-        <v>106169144</v>
+        <v>105706288</v>
       </c>
       <c r="C5" s="2">
-        <v>242358343958528</v>
+        <v>241826975973376</v>
       </c>
       <c r="D5" s="2">
-        <v>109394088</v>
+        <v>109124760</v>
       </c>
       <c r="E5" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.019720965996384621</v>
+        <v>0.019540151581168175</v>
       </c>
       <c r="G5" s="1">
         <v>0.99099999666213989</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>3890</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B6" s="2">
-        <v>113906648</v>
+        <v>113521280</v>
       </c>
       <c r="C6" s="2">
-        <v>259343144452096</v>
+        <v>258704016408576</v>
       </c>
       <c r="D6" s="2">
-        <v>119041736</v>
+        <v>118664816</v>
       </c>
       <c r="E6" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.023913294076919556</v>
+        <v>0.023760966956615448</v>
       </c>
       <c r="G6" s="1">
         <v>0.99199998378753662</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>3891</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B7" s="2">
-        <v>124988272</v>
+        <v>124227664</v>
       </c>
       <c r="C7" s="2">
-        <v>279058873057280</v>
+        <v>278307136339968</v>
       </c>
       <c r="D7" s="2">
-        <v>130789152</v>
+        <v>130353424</v>
       </c>
       <c r="E7" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.030307745561003685</v>
+        <v>0.030072800815105438</v>
       </c>
       <c r="G7" s="1">
         <v>0.99299997091293335</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>3892</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B8" s="2">
-        <v>137586736</v>
+        <v>137056016</v>
       </c>
       <c r="C8" s="2">
-        <v>304381111042048</v>
+        <v>303402663804928</v>
       </c>
       <c r="D8" s="2">
-        <v>145023216</v>
+        <v>144455856</v>
       </c>
       <c r="E8" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F8" s="1">
-        <v>0.035887051373720169</v>
+        <v>0.035732865333557129</v>
       </c>
       <c r="G8" s="1">
         <v>0.99400001764297485</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>3893</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B9" s="2">
-        <v>153819728</v>
+        <v>152938384</v>
       </c>
       <c r="C9" s="2">
-        <v>335805071491072</v>
+        <v>334525573890048</v>
       </c>
       <c r="D9" s="2">
-        <v>164369344</v>
+        <v>163578112</v>
       </c>
       <c r="E9" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F9" s="1">
-        <v>0.039199601858854294</v>
+        <v>0.039122443646192551</v>
       </c>
       <c r="G9" s="1">
         <v>0.99500000476837158</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>3894</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B10" s="2">
-        <v>176854304</v>
+        <v>175985296</v>
       </c>
       <c r="C10" s="2">
-        <v>379783993098240</v>
+        <v>378012822405120</v>
       </c>
       <c r="D10" s="2">
-        <v>191426480</v>
+        <v>190898944</v>
       </c>
       <c r="E10" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F10" s="1">
-        <v>0.041905082762241364</v>
+        <v>0.041874151676893234</v>
       </c>
       <c r="G10" s="1">
         <v>0.99599999189376831</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>3895</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B11" s="2">
         <v>209261392</v>
@@ -12822,52 +12822,52 @@
         <v>441849391087616</v>
       </c>
       <c r="D11" s="2">
-        <v>233357104</v>
+        <v>232316800</v>
       </c>
       <c r="E11" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F11" s="1">
-        <v>0.046529475599527359</v>
+        <v>0.046480555087327957</v>
       </c>
       <c r="G11" s="1">
         <v>0.99699997901916504</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>3896</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B12" s="2">
-        <v>264300960</v>
+        <v>262469296</v>
       </c>
       <c r="C12" s="2">
-        <v>549822989860864</v>
+        <v>544778886316032</v>
       </c>
       <c r="D12" s="2">
-        <v>311498592</v>
+        <v>309807008</v>
       </c>
       <c r="E12" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F12" s="1">
-        <v>0.049477662891149521</v>
+        <v>0.049423180520534515</v>
       </c>
       <c r="G12" s="1">
         <v>0.99800002574920654</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>3897</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B13" s="2">
         <v>383506848</v>
@@ -12879,7 +12879,7 @@
         <v>389686112</v>
       </c>
       <c r="E13" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F13" s="1">
         <v>0.049481824040412903</v>
@@ -12889,12 +12889,12 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>3898</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B14" s="2">
         <v>404417088</v>
@@ -12906,7 +12906,7 @@
         <v>413378592</v>
       </c>
       <c r="E14" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F14" s="1">
         <v>0.050793692469596863</v>
@@ -12916,12 +12916,12 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>3899</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B15" s="2">
         <v>431899328</v>
@@ -12930,52 +12930,52 @@
         <v>893595326349312</v>
       </c>
       <c r="D15" s="2">
-        <v>442005568</v>
+        <v>437148800</v>
       </c>
       <c r="E15" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F15" s="1">
-        <v>0.051289491355419159</v>
+        <v>0.050754468888044357</v>
       </c>
       <c r="G15" s="1">
         <v>0.99919998645782471</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>3900</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B16" s="2">
-        <v>465180064</v>
+        <v>451719040</v>
       </c>
       <c r="C16" s="2">
-        <v>964896682409984</v>
+        <v>939238614892544</v>
       </c>
       <c r="D16" s="2">
-        <v>471730720</v>
+        <v>465060160</v>
       </c>
       <c r="E16" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F16" s="1">
-        <v>0.052994407713413239</v>
+        <v>0.052782785147428513</v>
       </c>
       <c r="G16" s="1">
         <v>0.99930000305175781</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>3901</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B17" s="2">
         <v>478399200</v>
@@ -12987,7 +12987,7 @@
         <v>495643296</v>
       </c>
       <c r="E17" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F17" s="1">
         <v>0.052768304944038391</v>
@@ -12997,12 +12997,12 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>3902</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B18" s="2">
         <v>535704640</v>
@@ -13014,7 +13014,7 @@
         <v>558320896</v>
       </c>
       <c r="E18" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F18" s="1">
         <v>0.059352956712245941</v>
@@ -13024,12 +13024,12 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>3903</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B19" s="2">
         <v>612485952</v>
@@ -13041,7 +13041,7 @@
         <v>648249984</v>
       </c>
       <c r="E19" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F19" s="1">
         <v>0.056966591626405716</v>
@@ -13051,12 +13051,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" t="s">
-        <v>3904</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B20" s="2">
         <v>733110848</v>
@@ -13068,7 +13068,7 @@
         <v>790150592</v>
       </c>
       <c r="E20" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F20" s="1">
         <v>0.054344899952411652</v>
@@ -13078,12 +13078,12 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" t="s">
-        <v>3905</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>46295748</v>
+        <v>46565428</v>
       </c>
       <c r="B21" s="2">
         <v>945913920</v>
@@ -13095,7 +13095,7 @@
         <v>1112006272</v>
       </c>
       <c r="E21" s="1">
-        <v>3527606.25</v>
+        <v>3507176.5</v>
       </c>
       <c r="F21" s="1">
         <v>0.053760252892971039</v>
@@ -13105,7 +13105,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" t="s">
-        <v>3906</v>
+        <v>4154</v>
       </c>
     </row>
   </sheetData>
@@ -13148,22 +13148,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B2" s="2">
-        <v>23558180</v>
+        <v>16932148</v>
       </c>
       <c r="C2" s="2">
-        <v>138270029643776</v>
+        <v>134329011273728</v>
       </c>
       <c r="D2" s="2">
-        <v>30588928</v>
+        <v>25347798</v>
       </c>
       <c r="E2" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F2" s="1">
-        <v>1.7594522432773374e-05</v>
+        <v>0.00022912604617886245</v>
       </c>
       <c r="G2" s="1">
         <v>0.88999998569488525</v>
@@ -13177,466 +13177,466 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B3" s="2">
-        <v>37006940</v>
+        <v>32938076</v>
       </c>
       <c r="C3" s="2">
-        <v>149090344108032</v>
+        <v>145304296882176</v>
       </c>
       <c r="D3" s="2">
-        <v>42333632</v>
+        <v>38820004</v>
       </c>
       <c r="E3" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F3" s="1">
-        <v>3.7955258449073881e-05</v>
+        <v>1.5340676327468827e-05</v>
       </c>
       <c r="G3" s="1">
         <v>0.89999997615814209</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>4137</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B4" s="2">
-        <v>47120184</v>
+        <v>44398908</v>
       </c>
       <c r="C4" s="2">
-        <v>161015589240832</v>
+        <v>157073178361856</v>
       </c>
       <c r="D4" s="2">
-        <v>51655724</v>
+        <v>48976192</v>
       </c>
       <c r="E4" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F4" s="1">
-        <v>0.00068731483770534396</v>
+        <v>0.00045150966616347432</v>
       </c>
       <c r="G4" s="1">
         <v>0.9100000262260437</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>4138</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B5" s="2">
-        <v>56349524</v>
+        <v>53842796</v>
       </c>
       <c r="C5" s="2">
-        <v>174581964865536</v>
+        <v>170685741662208</v>
       </c>
       <c r="D5" s="2">
-        <v>60553932</v>
+        <v>58392332</v>
       </c>
       <c r="E5" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0010144185507670045</v>
+        <v>0.00094415986677631736</v>
       </c>
       <c r="G5" s="1">
         <v>0.92000001668930054</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>4139</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B6" s="2">
-        <v>64657708</v>
+        <v>62589444</v>
       </c>
       <c r="C6" s="2">
-        <v>190957668532224</v>
+        <v>186644950941696</v>
       </c>
       <c r="D6" s="2">
-        <v>69098032</v>
+        <v>67038696</v>
       </c>
       <c r="E6" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0017123247962445021</v>
+        <v>0.0014812345616519451</v>
       </c>
       <c r="G6" s="1">
         <v>0.93000000715255737</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>4140</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B7" s="2">
-        <v>74024824</v>
+        <v>71855832</v>
       </c>
       <c r="C7" s="2">
-        <v>211392233734144</v>
+        <v>206736908615680</v>
       </c>
       <c r="D7" s="2">
-        <v>79409176</v>
+        <v>77284952</v>
       </c>
       <c r="E7" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0031405042391270399</v>
+        <v>0.0028108374681323767</v>
       </c>
       <c r="G7" s="1">
         <v>0.93999999761581421</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>4141</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B8" s="2">
-        <v>85363984</v>
+        <v>83211560</v>
       </c>
       <c r="C8" s="2">
-        <v>237593715277824</v>
+        <v>232505286328320</v>
       </c>
       <c r="D8" s="2">
-        <v>92141160</v>
+        <v>90016448</v>
       </c>
       <c r="E8" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0062964810058474541</v>
+        <v>0.005651076789945364</v>
       </c>
       <c r="G8" s="1">
         <v>0.94999998807907104</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>4142</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B9" s="2">
-        <v>99628640</v>
+        <v>97596184</v>
       </c>
       <c r="C9" s="2">
-        <v>274180092198912</v>
+        <v>268444901572608</v>
       </c>
       <c r="D9" s="2">
-        <v>109565208</v>
+        <v>107016224</v>
       </c>
       <c r="E9" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F9" s="1">
-        <v>0.012068596668541431</v>
+        <v>0.01130380667746067</v>
       </c>
       <c r="G9" s="1">
         <v>0.95999997854232788</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>4143</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B10" s="2">
-        <v>121397496</v>
+        <v>118519744</v>
       </c>
       <c r="C10" s="2">
-        <v>329501670113280</v>
+        <v>322040607277056</v>
       </c>
       <c r="D10" s="2">
-        <v>136111632</v>
+        <v>133453128</v>
       </c>
       <c r="E10" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F10" s="1">
-        <v>0.017186122015118599</v>
+        <v>0.016630539670586586</v>
       </c>
       <c r="G10" s="1">
         <v>0.97000002861022949</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>4144</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B11" s="2">
-        <v>153649856</v>
+        <v>150788736</v>
       </c>
       <c r="C11" s="2">
-        <v>425605086576640</v>
+        <v>417460016644096</v>
       </c>
       <c r="D11" s="2">
-        <v>187155600</v>
+        <v>183426384</v>
       </c>
       <c r="E11" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F11" s="1">
-        <v>0.033759552985429764</v>
+        <v>0.032560944557189941</v>
       </c>
       <c r="G11" s="1">
         <v>0.98000001907348633</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>4145</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B12" s="2">
-        <v>236472640</v>
+        <v>231073440</v>
       </c>
       <c r="C12" s="2">
-        <v>667000770658304</v>
+        <v>651495066304512</v>
       </c>
       <c r="D12" s="2">
-        <v>243507136</v>
+        <v>237623120</v>
       </c>
       <c r="E12" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F12" s="1">
-        <v>0.047179717570543289</v>
+        <v>0.047414660453796387</v>
       </c>
       <c r="G12" s="1">
         <v>0.99000000953674316</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>4146</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B13" s="2">
-        <v>252834016</v>
+        <v>246411728</v>
       </c>
       <c r="C13" s="2">
-        <v>713405811916800</v>
+        <v>695059456458752</v>
       </c>
       <c r="D13" s="2">
-        <v>260452144</v>
+        <v>255055232</v>
       </c>
       <c r="E13" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F13" s="1">
-        <v>0.050297368317842484</v>
+        <v>0.048665575683116913</v>
       </c>
       <c r="G13" s="1">
         <v>0.99099999666213989</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>4147</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B14" s="2">
-        <v>270978016</v>
+        <v>265166656</v>
       </c>
       <c r="C14" s="2">
-        <v>769158312624128</v>
+        <v>754164179140608</v>
       </c>
       <c r="D14" s="2">
-        <v>280616032</v>
+        <v>275093472</v>
       </c>
       <c r="E14" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F14" s="1">
-        <v>0.051967132836580276</v>
+        <v>0.0520583875477314</v>
       </c>
       <c r="G14" s="1">
         <v>0.99199998378753662</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>4148</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B15" s="2">
-        <v>293979264</v>
+        <v>287401312</v>
       </c>
       <c r="C15" s="2">
-        <v>837727129960448</v>
+        <v>819121063198720</v>
       </c>
       <c r="D15" s="2">
-        <v>308029504</v>
+        <v>300854016</v>
       </c>
       <c r="E15" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F15" s="1">
-        <v>0.052551019936800003</v>
+        <v>0.052553117275238037</v>
       </c>
       <c r="G15" s="1">
         <v>0.99299997091293335</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>4149</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B16" s="2">
-        <v>327722880</v>
+        <v>319455008</v>
       </c>
       <c r="C16" s="2">
-        <v>937043081297920</v>
+        <v>912414061101056</v>
       </c>
       <c r="D16" s="2">
-        <v>343909088</v>
+        <v>334510944</v>
       </c>
       <c r="E16" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F16" s="1">
-        <v>0.053593344986438751</v>
+        <v>0.053340055048465729</v>
       </c>
       <c r="G16" s="1">
         <v>0.99400001764297485</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>4150</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B17" s="2">
-        <v>368049632</v>
+        <v>356337760</v>
       </c>
       <c r="C17" s="2">
-        <v>1055672225497088</v>
+        <v>1022485684289536</v>
       </c>
       <c r="D17" s="2">
-        <v>389097120</v>
+        <v>379721664</v>
       </c>
       <c r="E17" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F17" s="1">
-        <v>0.054136715829372406</v>
+        <v>0.05395720899105072</v>
       </c>
       <c r="G17" s="1">
         <v>0.99500000476837158</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>4151</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B18" s="2">
-        <v>420804800</v>
+        <v>412972960</v>
       </c>
       <c r="C18" s="2">
-        <v>1222316017057792</v>
+        <v>1197790948491264</v>
       </c>
       <c r="D18" s="2">
-        <v>452296800</v>
+        <v>444023392</v>
       </c>
       <c r="E18" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F18" s="1">
-        <v>0.053163602948188782</v>
+        <v>0.052209243178367615</v>
       </c>
       <c r="G18" s="1">
         <v>0.99599999189376831</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>4152</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B19" s="2">
-        <v>493741536</v>
+        <v>479165984</v>
       </c>
       <c r="C19" s="2">
-        <v>1478982188924928</v>
+        <v>1438996714487808</v>
       </c>
       <c r="D19" s="2">
-        <v>552741888</v>
+        <v>544568320</v>
       </c>
       <c r="E19" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F19" s="1">
-        <v>0.060769934207201004</v>
+        <v>0.061001695692539215</v>
       </c>
       <c r="G19" s="1">
         <v>0.99699997901916504</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>50566216</v>
+        <v>52321152</v>
       </c>
       <c r="B20" s="2">
         <v>653106176</v>
@@ -13648,7 +13648,7 @@
         <v>797243328</v>
       </c>
       <c r="E20" s="1">
-        <v>15341913</v>
+        <v>14827321</v>
       </c>
       <c r="F20" s="1">
         <v>0.053010310977697372</v>
@@ -13672,51 +13672,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3907</v>
+        <v>4127</v>
       </c>
       <c r="B1" t="s">
-        <v>3908</v>
+        <v>4128</v>
       </c>
       <c r="C1" t="s">
-        <v>3909</v>
+        <v>4129</v>
       </c>
       <c r="D1" t="s">
-        <v>3910</v>
+        <v>4130</v>
       </c>
       <c r="E1" t="s">
-        <v>3911</v>
+        <v>4131</v>
       </c>
       <c r="F1" t="s">
-        <v>3912</v>
+        <v>4132</v>
       </c>
       <c r="G1" t="s">
-        <v>3913</v>
+        <v>4133</v>
       </c>
       <c r="H1" t="s">
-        <v>3914</v>
+        <v>4134</v>
       </c>
       <c r="I1" t="s">
-        <v>3915</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B2" s="2">
-        <v>40932168</v>
+        <v>40737908</v>
       </c>
       <c r="C2" s="2">
-        <v>126261829566464</v>
+        <v>125924834017280</v>
       </c>
       <c r="D2" s="2">
-        <v>52649348</v>
+        <v>52453500</v>
       </c>
       <c r="E2" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F2" s="1">
-        <v>0.006108560599386692</v>
+        <v>0.0060513820499181747</v>
       </c>
       <c r="G2" s="1">
         <v>0.97000002861022949</v>
@@ -13725,93 +13725,93 @@
         <v>2015</v>
       </c>
       <c r="I2" t="s">
-        <v>3916</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B3" s="2">
-        <v>67022600</v>
+        <v>66912308</v>
       </c>
       <c r="C3" s="2">
-        <v>162997062336512</v>
+        <v>162806909370368</v>
       </c>
       <c r="D3" s="2">
-        <v>86285496</v>
+        <v>86122184</v>
       </c>
       <c r="E3" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F3" s="1">
-        <v>0.017677629366517067</v>
+        <v>0.01763136126101017</v>
       </c>
       <c r="G3" s="1">
         <v>0.98000001907348633</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>3917</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B4" s="2">
-        <v>108263352</v>
+        <v>108080040</v>
       </c>
       <c r="C4" s="2">
-        <v>240015422521344</v>
+        <v>239491000303616</v>
       </c>
       <c r="D4" s="2">
-        <v>110671376</v>
+        <v>110460584</v>
       </c>
       <c r="E4" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F4" s="1">
-        <v>0.026025624945759773</v>
+        <v>0.025680093094706535</v>
       </c>
       <c r="G4" s="1">
         <v>0.99000000953674316</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>3918</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B5" s="2">
-        <v>113681224</v>
+        <v>113352704</v>
       </c>
       <c r="C5" s="2">
-        <v>254321136500736</v>
+        <v>253701738463232</v>
       </c>
       <c r="D5" s="2">
-        <v>117475792</v>
+        <v>117317624</v>
       </c>
       <c r="E5" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F5" s="1">
-        <v>0.030516654253005981</v>
+        <v>0.030509259551763535</v>
       </c>
       <c r="G5" s="1">
         <v>0.99099999666213989</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>3919</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B6" s="2">
         <v>121325328</v>
@@ -13823,7 +13823,7 @@
         <v>126103960</v>
       </c>
       <c r="E6" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F6" s="1">
         <v>0.033045679330825806</v>
@@ -13833,12 +13833,12 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>3920</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B7" s="2">
         <v>131402952</v>
@@ -13847,79 +13847,79 @@
         <v>291973822939136</v>
       </c>
       <c r="D7" s="2">
-        <v>137547440</v>
+        <v>137284752</v>
       </c>
       <c r="E7" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F7" s="1">
-        <v>0.035520240664482117</v>
+        <v>0.035457894206047058</v>
       </c>
       <c r="G7" s="1">
         <v>0.99299997091293335</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>3921</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B8" s="2">
-        <v>145094880</v>
+        <v>144110560</v>
       </c>
       <c r="C8" s="2">
-        <v>318740562444288</v>
+        <v>317583404302336</v>
       </c>
       <c r="D8" s="2">
-        <v>152371936</v>
+        <v>151715136</v>
       </c>
       <c r="E8" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F8" s="1">
-        <v>0.038171973079442978</v>
+        <v>0.038022279739379883</v>
       </c>
       <c r="G8" s="1">
         <v>0.99400001764297485</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>3922</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B9" s="2">
-        <v>161808896</v>
+        <v>160525712</v>
       </c>
       <c r="C9" s="2">
-        <v>352015184035840</v>
+        <v>350495302483968</v>
       </c>
       <c r="D9" s="2">
-        <v>172098432</v>
+        <v>171653296</v>
       </c>
       <c r="E9" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F9" s="1">
-        <v>0.040415342897176743</v>
+        <v>0.040430892258882523</v>
       </c>
       <c r="G9" s="1">
         <v>0.99500000476837158</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>3923</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B10" s="2">
         <v>184818976</v>
@@ -13931,7 +13931,7 @@
         <v>199793408</v>
       </c>
       <c r="E10" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F10" s="1">
         <v>0.043595902621746063</v>
@@ -13941,12 +13941,12 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>3924</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B11" s="2">
         <v>218790624</v>
@@ -13958,7 +13958,7 @@
         <v>243202544</v>
       </c>
       <c r="E11" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F11" s="1">
         <v>0.048002079129219055</v>
@@ -13968,12 +13968,12 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>3925</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B12" s="2">
         <v>275314144</v>
@@ -13985,7 +13985,7 @@
         <v>322630112</v>
       </c>
       <c r="E12" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F12" s="1">
         <v>0.050942867994308472</v>
@@ -13995,12 +13995,12 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>3926</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B13" s="2">
         <v>394682304</v>
@@ -14012,7 +14012,7 @@
         <v>403583584</v>
       </c>
       <c r="E13" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F13" s="1">
         <v>0.053033672273159027</v>
@@ -14022,12 +14022,12 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>3927</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B14" s="2">
         <v>422090816</v>
@@ -14039,7 +14039,7 @@
         <v>427566880</v>
       </c>
       <c r="E14" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F14" s="1">
         <v>0.051253844052553177</v>
@@ -14049,12 +14049,12 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>3928</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B15" s="2">
         <v>442916288</v>
@@ -14066,7 +14066,7 @@
         <v>455374016</v>
       </c>
       <c r="E15" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F15" s="1">
         <v>0.048789199441671371</v>
@@ -14076,12 +14076,12 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>3929</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B16" s="2">
         <v>477012672</v>
@@ -14093,7 +14093,7 @@
         <v>480397120</v>
       </c>
       <c r="E16" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F16" s="1">
         <v>0.053410980850458145</v>
@@ -14103,12 +14103,12 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>3930</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B17" s="2">
         <v>501217952</v>
@@ -14120,7 +14120,7 @@
         <v>523461856</v>
       </c>
       <c r="E17" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F17" s="1">
         <v>0.061478335410356522</v>
@@ -14130,12 +14130,12 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>3931</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B18" s="2">
         <v>568489920</v>
@@ -14147,7 +14147,7 @@
         <v>583947648</v>
       </c>
       <c r="E18" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F18" s="1">
         <v>0.060061436146497726</v>
@@ -14157,12 +14157,12 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>3932</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B19" s="2">
         <v>628331456</v>
@@ -14174,7 +14174,7 @@
         <v>671086912</v>
       </c>
       <c r="E19" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F19" s="1">
         <v>0.060906652361154556</v>
@@ -14184,12 +14184,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" t="s">
-        <v>3933</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B20" s="2">
         <v>772128192</v>
@@ -14201,7 +14201,7 @@
         <v>808386624</v>
       </c>
       <c r="E20" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F20" s="1">
         <v>0.056867755949497223</v>
@@ -14211,12 +14211,12 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" t="s">
-        <v>3934</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>46817680</v>
+        <v>46969940</v>
       </c>
       <c r="B21" s="2">
         <v>941614208</v>
@@ -14228,7 +14228,7 @@
         <v>1110011264</v>
       </c>
       <c r="E21" s="1">
-        <v>4011301.25</v>
+        <v>3998298</v>
       </c>
       <c r="F21" s="1">
         <v>0.059022698551416397</v>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" t="s">
-        <v>3935</v>
+        <v>4154</v>
       </c>
     </row>
   </sheetData>
@@ -14252,51 +14252,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3936</v>
+        <v>4127</v>
       </c>
       <c r="B1" t="s">
-        <v>3937</v>
+        <v>4128</v>
       </c>
       <c r="C1" t="s">
-        <v>3938</v>
+        <v>4129</v>
       </c>
       <c r="D1" t="s">
-        <v>3939</v>
+        <v>4130</v>
       </c>
       <c r="E1" t="s">
-        <v>3940</v>
+        <v>4131</v>
       </c>
       <c r="F1" t="s">
-        <v>3941</v>
+        <v>4132</v>
       </c>
       <c r="G1" t="s">
-        <v>3942</v>
+        <v>4133</v>
       </c>
       <c r="H1" t="s">
-        <v>3943</v>
+        <v>4134</v>
       </c>
       <c r="I1" t="s">
-        <v>3944</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B2" s="2">
-        <v>13155085</v>
+        <v>12637034</v>
       </c>
       <c r="C2" s="2">
-        <v>109465001000960</v>
+        <v>109258414751744</v>
       </c>
       <c r="D2" s="2">
-        <v>32932164</v>
+        <v>32702176</v>
       </c>
       <c r="E2" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0024373540654778481</v>
+        <v>0.0024436619132757187</v>
       </c>
       <c r="G2" s="1">
         <v>0.95999997854232788</v>
@@ -14305,93 +14305,93 @@
         <v>2016</v>
       </c>
       <c r="I2" t="s">
-        <v>3945</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B3" s="2">
-        <v>46476616</v>
+        <v>46388568</v>
       </c>
       <c r="C3" s="2">
-        <v>134902976610304</v>
+        <v>134776300240896</v>
       </c>
       <c r="D3" s="2">
-        <v>58445412</v>
+        <v>58330416</v>
       </c>
       <c r="E3" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0065521597862243652</v>
+        <v>0.0065189427696168423</v>
       </c>
       <c r="G3" s="1">
         <v>0.97000002861022949</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>3946</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B4" s="2">
-        <v>73334056</v>
+        <v>73200512</v>
       </c>
       <c r="C4" s="2">
-        <v>173214252662784</v>
+        <v>172999974060032</v>
       </c>
       <c r="D4" s="2">
-        <v>92143200</v>
+        <v>91966488</v>
       </c>
       <c r="E4" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F4" s="1">
-        <v>0.01771201565861702</v>
+        <v>0.017647704109549522</v>
       </c>
       <c r="G4" s="1">
         <v>0.98000001907348633</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>3947</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B5" s="2">
-        <v>114635368</v>
+        <v>114517192</v>
       </c>
       <c r="C5" s="2">
-        <v>254632135753728</v>
+        <v>254033809899520</v>
       </c>
       <c r="D5" s="2">
-        <v>117689760</v>
+        <v>117557664</v>
       </c>
       <c r="E5" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F5" s="1">
-        <v>0.027920648455619812</v>
+        <v>0.027830349281430244</v>
       </c>
       <c r="G5" s="1">
         <v>0.99000000953674316</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>3948</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B6" s="2">
         <v>121428352</v>
@@ -14400,52 +14400,52 @@
         <v>269630916526080</v>
       </c>
       <c r="D6" s="2">
-        <v>125341840</v>
+        <v>125150752</v>
       </c>
       <c r="E6" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F6" s="1">
-        <v>0.030016198754310608</v>
+        <v>0.029982399195432663</v>
       </c>
       <c r="G6" s="1">
         <v>0.99099999666213989</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>3949</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B7" s="2">
-        <v>129866240</v>
+        <v>129736024</v>
       </c>
       <c r="C7" s="2">
-        <v>288249918521344</v>
+        <v>287402031579136</v>
       </c>
       <c r="D7" s="2">
-        <v>134595152</v>
+        <v>134392608</v>
       </c>
       <c r="E7" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F7" s="1">
-        <v>0.033656567335128784</v>
+        <v>0.033537223935127258</v>
       </c>
       <c r="G7" s="1">
         <v>0.99199998378753662</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>3950</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B8" s="2">
         <v>140178096</v>
@@ -14457,7 +14457,7 @@
         <v>146080112</v>
       </c>
       <c r="E8" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F8" s="1">
         <v>0.034784827381372452</v>
@@ -14467,12 +14467,12 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>3951</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B9" s="2">
         <v>153188192</v>
@@ -14481,52 +14481,52 @@
         <v>336849016979456</v>
       </c>
       <c r="D9" s="2">
-        <v>161222832</v>
+        <v>160838240</v>
       </c>
       <c r="E9" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F9" s="1">
-        <v>0.03760850802063942</v>
+        <v>0.037521298974752426</v>
       </c>
       <c r="G9" s="1">
         <v>0.99400001764297485</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>3952</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B10" s="2">
-        <v>170751744</v>
+        <v>170070048</v>
       </c>
       <c r="C10" s="2">
-        <v>373185212055552</v>
+        <v>371449609060352</v>
       </c>
       <c r="D10" s="2">
-        <v>181754320</v>
+        <v>181267600</v>
       </c>
       <c r="E10" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F10" s="1">
-        <v>0.039482541382312775</v>
+        <v>0.039488054811954498</v>
       </c>
       <c r="G10" s="1">
         <v>0.99500000476837158</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>3953</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B11" s="2">
         <v>194699504</v>
@@ -14538,7 +14538,7 @@
         <v>210058560</v>
       </c>
       <c r="E11" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F11" s="1">
         <v>0.043204136192798615</v>
@@ -14548,12 +14548,12 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>3954</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B12" s="2">
         <v>229694448</v>
@@ -14565,7 +14565,7 @@
         <v>255474368</v>
       </c>
       <c r="E12" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F12" s="1">
         <v>0.047611664980649948</v>
@@ -14575,12 +14575,12 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>3955</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B13" s="2">
         <v>289810432</v>
@@ -14592,7 +14592,7 @@
         <v>340518656</v>
       </c>
       <c r="E13" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F13" s="1">
         <v>0.051313124597072601</v>
@@ -14602,12 +14602,12 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>3956</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B14" s="2">
         <v>417007584</v>
@@ -14619,7 +14619,7 @@
         <v>421576608</v>
       </c>
       <c r="E14" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F14" s="1">
         <v>0.053380925208330154</v>
@@ -14629,12 +14629,12 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>3957</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B15" s="2">
         <v>437217824</v>
@@ -14646,7 +14646,7 @@
         <v>448973152</v>
       </c>
       <c r="E15" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F15" s="1">
         <v>0.049622923135757446</v>
@@ -14656,12 +14656,12 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>3958</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B16" s="2">
         <v>472293952</v>
@@ -14673,7 +14673,7 @@
         <v>474558336</v>
       </c>
       <c r="E16" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F16" s="1">
         <v>0.047328155487775803</v>
@@ -14683,12 +14683,12 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>3959</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B17" s="2">
         <v>489509568</v>
@@ -14700,7 +14700,7 @@
         <v>499723072</v>
       </c>
       <c r="E17" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F17" s="1">
         <v>0.057919472455978394</v>
@@ -14710,12 +14710,12 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>3960</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B18" s="2">
         <v>527300416</v>
@@ -14727,7 +14727,7 @@
         <v>551754688</v>
       </c>
       <c r="E18" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F18" s="1">
         <v>0.06114998459815979</v>
@@ -14737,12 +14737,12 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>3961</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B19" s="2">
         <v>606838080</v>
@@ -14754,7 +14754,7 @@
         <v>624273856</v>
       </c>
       <c r="E19" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F19" s="1">
         <v>0.058097310364246368</v>
@@ -14764,12 +14764,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" t="s">
-        <v>3962</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B20" s="2">
         <v>679037184</v>
@@ -14781,7 +14781,7 @@
         <v>704203904</v>
       </c>
       <c r="E20" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F20" s="1">
         <v>0.059110760688781738</v>
@@ -14791,12 +14791,12 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" t="s">
-        <v>3963</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B21" s="2">
         <v>787556480</v>
@@ -14808,7 +14808,7 @@
         <v>866403392</v>
       </c>
       <c r="E21" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F21" s="1">
         <v>0.057731304317712784</v>
@@ -14818,12 +14818,12 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" t="s">
-        <v>3964</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>47341328</v>
+        <v>47437512</v>
       </c>
       <c r="B22" s="2">
         <v>1094746624</v>
@@ -14835,7 +14835,7 @@
         <v>1208501248</v>
       </c>
       <c r="E22" s="1">
-        <v>4388485</v>
+        <v>4379587</v>
       </c>
       <c r="F22" s="1">
         <v>0.057515412569046021</v>
@@ -14845,7 +14845,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" t="s">
-        <v>3965</v>
+        <v>4154</v>
       </c>
     </row>
   </sheetData>
@@ -14859,51 +14859,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3966</v>
+        <v>4127</v>
       </c>
       <c r="B1" t="s">
-        <v>3967</v>
+        <v>4128</v>
       </c>
       <c r="C1" t="s">
-        <v>3968</v>
+        <v>4129</v>
       </c>
       <c r="D1" t="s">
-        <v>3969</v>
+        <v>4130</v>
       </c>
       <c r="E1" t="s">
-        <v>3970</v>
+        <v>4131</v>
       </c>
       <c r="F1" t="s">
-        <v>3971</v>
+        <v>4132</v>
       </c>
       <c r="G1" t="s">
-        <v>3972</v>
+        <v>4133</v>
       </c>
       <c r="H1" t="s">
-        <v>3973</v>
+        <v>4134</v>
       </c>
       <c r="I1" t="s">
-        <v>3974</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B2" s="2">
-        <v>15420052</v>
+        <v>13920428</v>
       </c>
       <c r="C2" s="2">
-        <v>132229476909056</v>
+        <v>131481884164096</v>
       </c>
       <c r="D2" s="2">
-        <v>29187262</v>
+        <v>28325448</v>
       </c>
       <c r="E2" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0033083606977015734</v>
+        <v>0.0033187249209731817</v>
       </c>
       <c r="G2" s="1">
         <v>0.93999999761581421</v>
@@ -14912,174 +14912,174 @@
         <v>2017</v>
       </c>
       <c r="I2" t="s">
-        <v>3975</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B3" s="2">
-        <v>41738212</v>
+        <v>41171916</v>
       </c>
       <c r="C3" s="2">
-        <v>152782489255936</v>
+        <v>152217751388160</v>
       </c>
       <c r="D3" s="2">
-        <v>48586964</v>
+        <v>48255096</v>
       </c>
       <c r="E3" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0026026575360447168</v>
+        <v>0.0026159146800637245</v>
       </c>
       <c r="G3" s="1">
         <v>0.94999998807907104</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>3976</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B4" s="2">
-        <v>54594988</v>
+        <v>54276332</v>
       </c>
       <c r="C4" s="2">
-        <v>178959593504768</v>
+        <v>178164470906880</v>
       </c>
       <c r="D4" s="2">
-        <v>61441364</v>
+        <v>61114204</v>
       </c>
       <c r="E4" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F4" s="1">
-        <v>0.005501825362443924</v>
+        <v>0.0053629823960363865</v>
       </c>
       <c r="G4" s="1">
         <v>0.95999997854232788</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>3977</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B5" s="2">
-        <v>69351232</v>
+        <v>69058704</v>
       </c>
       <c r="C5" s="2">
-        <v>218046262149120</v>
+        <v>217101855883264</v>
       </c>
       <c r="D5" s="2">
-        <v>80381336</v>
+        <v>80002392</v>
       </c>
       <c r="E5" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F5" s="1">
-        <v>0.013497414067387581</v>
+        <v>0.013373091816902161</v>
       </c>
       <c r="G5" s="1">
         <v>0.97000002861022949</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>3978</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B6" s="2">
-        <v>93875728</v>
+        <v>93478816</v>
       </c>
       <c r="C6" s="2">
-        <v>287320964071424</v>
+        <v>286088778219520</v>
       </c>
       <c r="D6" s="2">
-        <v>115573528</v>
+        <v>115086352</v>
       </c>
       <c r="E6" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F6" s="1">
-        <v>0.024444181472063065</v>
+        <v>0.024297446012496948</v>
       </c>
       <c r="G6" s="1">
         <v>0.98000001907348633</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>3979</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B7" s="2">
-        <v>148311568</v>
+        <v>148059600</v>
       </c>
       <c r="C7" s="2">
-        <v>459071975063552</v>
+        <v>457090451636224</v>
       </c>
       <c r="D7" s="2">
-        <v>153571536</v>
+        <v>152871776</v>
       </c>
       <c r="E7" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F7" s="1">
-        <v>0.035752739757299423</v>
+        <v>0.035594839602708817</v>
       </c>
       <c r="G7" s="1">
         <v>0.99000000953674316</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>3980</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B8" s="2">
-        <v>159916528</v>
+        <v>159254080</v>
       </c>
       <c r="C8" s="2">
-        <v>493984522698752</v>
+        <v>491610647298048</v>
       </c>
       <c r="D8" s="2">
-        <v>165834240</v>
+        <v>165423040</v>
       </c>
       <c r="E8" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F8" s="1">
-        <v>0.036332912743091583</v>
+        <v>0.03624410554766655</v>
       </c>
       <c r="G8" s="1">
         <v>0.99099999666213989</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>3981</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B9" s="2">
         <v>173592768</v>
@@ -15088,79 +15088,79 @@
         <v>533365077835776</v>
       </c>
       <c r="D9" s="2">
-        <v>180997216</v>
+        <v>180441952</v>
       </c>
       <c r="E9" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F9" s="1">
-        <v>0.037285879254341125</v>
+        <v>0.037188161164522171</v>
       </c>
       <c r="G9" s="1">
         <v>0.99199998378753662</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>3982</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B10" s="2">
-        <v>190972592</v>
+        <v>189318160</v>
       </c>
       <c r="C10" s="2">
-        <v>585089771634688</v>
+        <v>581488508665856</v>
       </c>
       <c r="D10" s="2">
-        <v>200930816</v>
+        <v>199504272</v>
       </c>
       <c r="E10" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F10" s="1">
-        <v>0.037873778492212296</v>
+        <v>0.037953473627567291</v>
       </c>
       <c r="G10" s="1">
         <v>0.99299997091293335</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>3983</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B11" s="2">
-        <v>213172256</v>
+        <v>212137632</v>
       </c>
       <c r="C11" s="2">
-        <v>651180057296896</v>
+        <v>646511025192960</v>
       </c>
       <c r="D11" s="2">
-        <v>225877936</v>
+        <v>225019440</v>
       </c>
       <c r="E11" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F11" s="1">
-        <v>0.040058303624391556</v>
+        <v>0.039896942675113678</v>
       </c>
       <c r="G11" s="1">
         <v>0.99400001764297485</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>3984</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B12" s="2">
         <v>241914512</v>
@@ -15172,7 +15172,7 @@
         <v>260351136</v>
       </c>
       <c r="E12" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F12" s="1">
         <v>0.041576821357011795</v>
@@ -15182,12 +15182,12 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>3985</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B13" s="2">
         <v>284857376</v>
@@ -15196,52 +15196,52 @@
         <v>854936661262336</v>
       </c>
       <c r="D13" s="2">
-        <v>312368736</v>
+        <v>310201824</v>
       </c>
       <c r="E13" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F13" s="1">
-        <v>0.043413445353507996</v>
+        <v>0.043455339968204498</v>
       </c>
       <c r="G13" s="1">
         <v>0.99599999189376831</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>3986</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B14" s="2">
-        <v>349228096</v>
+        <v>344874272</v>
       </c>
       <c r="C14" s="2">
-        <v>1043655578091520</v>
+        <v>1028788481687552</v>
       </c>
       <c r="D14" s="2">
-        <v>394610880</v>
+        <v>391502432</v>
       </c>
       <c r="E14" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F14" s="1">
-        <v>0.040800809860229492</v>
+        <v>0.040924817323684692</v>
       </c>
       <c r="G14" s="1">
         <v>0.99699997901916504</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>3987</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B15" s="2">
         <v>457785632</v>
@@ -15253,7 +15253,7 @@
         <v>566273408</v>
       </c>
       <c r="E15" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F15" s="1">
         <v>0.038846500217914581</v>
@@ -15263,12 +15263,12 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>3988</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B16" s="2">
         <v>811909440</v>
@@ -15280,7 +15280,7 @@
         <v>834756928</v>
       </c>
       <c r="E16" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F16" s="1">
         <v>0.034611627459526062</v>
@@ -15290,39 +15290,39 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>3989</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B17" s="2">
-        <v>908973696</v>
+        <v>969297600</v>
       </c>
       <c r="C17" s="2">
-        <v>2549059332079616</v>
+        <v>2698153484615680</v>
       </c>
       <c r="D17" s="2">
-        <v>939135616</v>
+        <v>1006764416</v>
       </c>
       <c r="E17" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F17" s="1">
-        <v>0.032884601503610611</v>
+        <v>0.033115401864051819</v>
       </c>
       <c r="G17" s="1">
-        <v>0.99919998645782471</v>
+        <v>0.99930000305175781</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>3990</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B18" s="2">
         <v>1139641856</v>
@@ -15334,7 +15334,7 @@
         <v>1194040832</v>
       </c>
       <c r="E18" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F18" s="1">
         <v>0.029699156060814857</v>
@@ -15344,12 +15344,12 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>3991</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B19" s="2">
         <v>1570327680</v>
@@ -15361,7 +15361,7 @@
         <v>1695440000</v>
       </c>
       <c r="E19" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F19" s="1">
         <v>0.026543557643890381</v>
@@ -15371,12 +15371,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" t="s">
-        <v>3992</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>47868584</v>
+        <v>48131080</v>
       </c>
       <c r="B20" s="2">
         <v>2734420480</v>
@@ -15388,7 +15388,7 @@
         <v>3306858240</v>
       </c>
       <c r="E20" s="1">
-        <v>7952793.5</v>
+        <v>7909421</v>
       </c>
       <c r="F20" s="1">
         <v>0.01953510195016861</v>
@@ -15398,7 +15398,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" t="s">
-        <v>3993</v>
+        <v>4154</v>
       </c>
     </row>
   </sheetData>
@@ -15412,51 +15412,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3994</v>
+        <v>4127</v>
       </c>
       <c r="B1" t="s">
-        <v>3995</v>
+        <v>4128</v>
       </c>
       <c r="C1" t="s">
-        <v>3996</v>
+        <v>4129</v>
       </c>
       <c r="D1" t="s">
-        <v>3997</v>
+        <v>4130</v>
       </c>
       <c r="E1" t="s">
-        <v>3998</v>
+        <v>4131</v>
       </c>
       <c r="F1" t="s">
-        <v>3999</v>
+        <v>4132</v>
       </c>
       <c r="G1" t="s">
-        <v>4000</v>
+        <v>4133</v>
       </c>
       <c r="H1" t="s">
-        <v>4001</v>
+        <v>4134</v>
       </c>
       <c r="I1" t="s">
-        <v>4002</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B2" s="2">
-        <v>25435424</v>
+        <v>23422718</v>
       </c>
       <c r="C2" s="2">
-        <v>139972690575360</v>
+        <v>138420848427008</v>
       </c>
       <c r="D2" s="2">
-        <v>37251072</v>
+        <v>35581460</v>
       </c>
       <c r="E2" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0030159445013850927</v>
+        <v>0.0030564854387193918</v>
       </c>
       <c r="G2" s="1">
         <v>0.93999999761581421</v>
@@ -15465,309 +15465,309 @@
         <v>2018</v>
       </c>
       <c r="I2" t="s">
-        <v>4003</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B3" s="2">
-        <v>47086540</v>
+        <v>46264864</v>
       </c>
       <c r="C3" s="2">
-        <v>160516047634432</v>
+        <v>158988633112576</v>
       </c>
       <c r="D3" s="2">
-        <v>52931484</v>
+        <v>52197772</v>
       </c>
       <c r="E3" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0023432574234902859</v>
+        <v>0.0022958514746278524</v>
       </c>
       <c r="G3" s="1">
         <v>0.94999998807907104</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>4004</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B4" s="2">
-        <v>59127336</v>
+        <v>58453496</v>
       </c>
       <c r="C4" s="2">
-        <v>187413280325632</v>
+        <v>185685814280192</v>
       </c>
       <c r="D4" s="2">
-        <v>66270332</v>
+        <v>65546676</v>
       </c>
       <c r="E4" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0057252692058682442</v>
+        <v>0.0054250583052635193</v>
       </c>
       <c r="G4" s="1">
         <v>0.95999997854232788</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>4005</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B5" s="2">
-        <v>74665888</v>
+        <v>73872448</v>
       </c>
       <c r="C5" s="2">
-        <v>227794546065408</v>
+        <v>225731535699968</v>
       </c>
       <c r="D5" s="2">
-        <v>86060520</v>
+        <v>85232968</v>
       </c>
       <c r="E5" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F5" s="1">
-        <v>0.013502932153642178</v>
+        <v>0.01322534866631031</v>
       </c>
       <c r="G5" s="1">
         <v>0.97000002861022949</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>4006</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B6" s="2">
-        <v>99665960</v>
+        <v>98729936</v>
       </c>
       <c r="C6" s="2">
-        <v>298661623889920</v>
+        <v>295982101168128</v>
       </c>
       <c r="D6" s="2">
-        <v>122813728</v>
+        <v>121724672</v>
       </c>
       <c r="E6" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F6" s="1">
-        <v>0.024414945393800735</v>
+        <v>0.024113921448588371</v>
       </c>
       <c r="G6" s="1">
         <v>0.98000001907348633</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>4007</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B7" s="2">
-        <v>157370224</v>
+        <v>156123152</v>
       </c>
       <c r="C7" s="2">
-        <v>474509899464704</v>
+        <v>470239594676224</v>
       </c>
       <c r="D7" s="2">
-        <v>162850768</v>
+        <v>161367232</v>
       </c>
       <c r="E7" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F7" s="1">
-        <v>0.035437319427728653</v>
+        <v>0.034631788730621338</v>
       </c>
       <c r="G7" s="1">
         <v>0.99000000953674316</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>4008</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B8" s="2">
-        <v>169222192</v>
+        <v>167271840</v>
       </c>
       <c r="C8" s="2">
-        <v>509924421402624</v>
+        <v>504816530882560</v>
       </c>
       <c r="D8" s="2">
-        <v>175690928</v>
+        <v>173744768</v>
       </c>
       <c r="E8" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F8" s="1">
-        <v>0.036879487335681915</v>
+        <v>0.037256769835948944</v>
       </c>
       <c r="G8" s="1">
         <v>0.99099999666213989</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>4009</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B9" s="2">
-        <v>183711024</v>
+        <v>181540320</v>
       </c>
       <c r="C9" s="2">
-        <v>552776048312320</v>
+        <v>546548748386304</v>
       </c>
       <c r="D9" s="2">
-        <v>191789696</v>
+        <v>189451280</v>
       </c>
       <c r="E9" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F9" s="1">
-        <v>0.03762020543217659</v>
+        <v>0.03738320991396904</v>
       </c>
       <c r="G9" s="1">
         <v>0.99199998378753662</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>4010</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B10" s="2">
-        <v>201894208</v>
+        <v>198898576</v>
       </c>
       <c r="C10" s="2">
-        <v>605861575655424</v>
+        <v>598050170994688</v>
       </c>
       <c r="D10" s="2">
-        <v>211575760</v>
+        <v>209291216</v>
       </c>
       <c r="E10" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F10" s="1">
-        <v>0.038842160254716873</v>
+        <v>0.038756910711526871</v>
       </c>
       <c r="G10" s="1">
         <v>0.99299997091293335</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>4011</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B11" s="2">
-        <v>223824688</v>
+        <v>222153072</v>
       </c>
       <c r="C11" s="2">
-        <v>668590848081920</v>
+        <v>663573118320640</v>
       </c>
       <c r="D11" s="2">
-        <v>237775552</v>
+        <v>235743488</v>
       </c>
       <c r="E11" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F11" s="1">
-        <v>0.039578191936016083</v>
+        <v>0.039422247558832169</v>
       </c>
       <c r="G11" s="1">
         <v>0.99400001764297485</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>4012</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B12" s="2">
-        <v>255488560</v>
+        <v>252624896</v>
       </c>
       <c r="C12" s="2">
-        <v>757115626979328</v>
+        <v>750296091328512</v>
       </c>
       <c r="D12" s="2">
-        <v>274539552</v>
+        <v>271654848</v>
       </c>
       <c r="E12" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F12" s="1">
-        <v>0.04119318351149559</v>
+        <v>0.041170701384544373</v>
       </c>
       <c r="G12" s="1">
         <v>0.99500000476837158</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>4013</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B13" s="2">
-        <v>299572416</v>
+        <v>295901728</v>
       </c>
       <c r="C13" s="2">
-        <v>881912209997824</v>
+        <v>871985735270400</v>
       </c>
       <c r="D13" s="2">
-        <v>325453344</v>
+        <v>323484352</v>
       </c>
       <c r="E13" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F13" s="1">
-        <v>0.044025160372257233</v>
+        <v>0.043876390904188156</v>
       </c>
       <c r="G13" s="1">
         <v>0.99599999189376831</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>4014</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B14" s="2">
         <v>360212448</v>
@@ -15779,7 +15779,7 @@
         <v>409557312</v>
       </c>
       <c r="E14" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F14" s="1">
         <v>0.041098453104496002</v>
@@ -15789,12 +15789,12 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>4015</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B15" s="2">
         <v>478956352</v>
@@ -15806,7 +15806,7 @@
         <v>592150848</v>
       </c>
       <c r="E15" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F15" s="1">
         <v>0.040107071399688721</v>
@@ -15816,12 +15816,12 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>4016</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B16" s="2">
         <v>850717760</v>
@@ -15833,7 +15833,7 @@
         <v>876191680</v>
       </c>
       <c r="E16" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F16" s="1">
         <v>0.036444984376430511</v>
@@ -15843,12 +15843,12 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>4017</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B17" s="2">
         <v>1031478144</v>
@@ -15860,7 +15860,7 @@
         <v>1075973888</v>
       </c>
       <c r="E17" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F17" s="1">
         <v>0.035265639424324036</v>
@@ -15870,12 +15870,12 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>4018</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B18" s="2">
         <v>1367771776</v>
@@ -15887,7 +15887,7 @@
         <v>1456621056</v>
       </c>
       <c r="E18" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F18" s="1">
         <v>0.029746746644377708</v>
@@ -15897,12 +15897,12 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>4019</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>48392824</v>
+        <v>49024464</v>
       </c>
       <c r="B19" s="2">
         <v>2127991168</v>
@@ -15914,7 +15914,7 @@
         <v>2408417024</v>
       </c>
       <c r="E19" s="1">
-        <v>8498904</v>
+        <v>8389403</v>
       </c>
       <c r="F19" s="1">
         <v>0.024190908297896385</v>
@@ -15924,7 +15924,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" t="s">
-        <v>4020</v>
+        <v>4154</v>
       </c>
     </row>
   </sheetData>
@@ -15938,51 +15938,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4021</v>
+        <v>4127</v>
       </c>
       <c r="B1" t="s">
-        <v>4022</v>
+        <v>4128</v>
       </c>
       <c r="C1" t="s">
-        <v>4023</v>
+        <v>4129</v>
       </c>
       <c r="D1" t="s">
-        <v>4024</v>
+        <v>4130</v>
       </c>
       <c r="E1" t="s">
-        <v>4025</v>
+        <v>4131</v>
       </c>
       <c r="F1" t="s">
-        <v>4026</v>
+        <v>4132</v>
       </c>
       <c r="G1" t="s">
-        <v>4027</v>
+        <v>4133</v>
       </c>
       <c r="H1" t="s">
-        <v>4028</v>
+        <v>4134</v>
       </c>
       <c r="I1" t="s">
-        <v>4029</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B2" s="2">
-        <v>13993710</v>
+        <v>9584626</v>
       </c>
       <c r="C2" s="2">
-        <v>131241986752512</v>
+        <v>128872926412800</v>
       </c>
       <c r="D2" s="2">
-        <v>27299344</v>
+        <v>23985064</v>
       </c>
       <c r="E2" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F2" s="1">
-        <v>0.00039489308255724609</v>
+        <v>0.00040723042911849916</v>
       </c>
       <c r="G2" s="1">
         <v>0.93000000715255737</v>
@@ -15991,363 +15991,363 @@
         <v>2019</v>
       </c>
       <c r="I2" t="s">
-        <v>4030</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B3" s="2">
-        <v>38357364</v>
+        <v>36211708</v>
       </c>
       <c r="C3" s="2">
-        <v>148565988999168</v>
+        <v>146409277882368</v>
       </c>
       <c r="D3" s="2">
-        <v>46209756</v>
+        <v>44584180</v>
       </c>
       <c r="E3" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0011084378929808736</v>
+        <v>0.00099737464915961027</v>
       </c>
       <c r="G3" s="1">
         <v>0.93999999761581421</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>4031</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B4" s="2">
-        <v>52449668</v>
+        <v>51346700</v>
       </c>
       <c r="C4" s="2">
-        <v>169035937349632</v>
+        <v>166654562533376</v>
       </c>
       <c r="D4" s="2">
-        <v>58288480</v>
+        <v>57192256</v>
       </c>
       <c r="E4" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0023749563843011856</v>
+        <v>0.0021646891254931688</v>
       </c>
       <c r="G4" s="1">
         <v>0.94999998807907104</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>4032</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B5" s="2">
-        <v>64442892</v>
+        <v>63403744</v>
       </c>
       <c r="C5" s="2">
-        <v>196724098334720</v>
+        <v>194070932619264</v>
       </c>
       <c r="D5" s="2">
-        <v>71753232</v>
+        <v>70660736</v>
       </c>
       <c r="E5" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0074880141764879227</v>
+        <v>0.0069446866400539875</v>
       </c>
       <c r="G5" s="1">
         <v>0.95999997854232788</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>4033</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B6" s="2">
-        <v>80396872</v>
+        <v>79228752</v>
       </c>
       <c r="C6" s="2">
-        <v>238380784812032</v>
+        <v>235307685380096</v>
       </c>
       <c r="D6" s="2">
-        <v>92247568</v>
+        <v>91034048</v>
       </c>
       <c r="E6" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F6" s="1">
-        <v>0.015089274384081364</v>
+        <v>0.014757320284843445</v>
       </c>
       <c r="G6" s="1">
         <v>0.97000002861022949</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>4034</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B7" s="2">
-        <v>106563352</v>
+        <v>105113512</v>
       </c>
       <c r="C7" s="2">
-        <v>311446265135104</v>
+        <v>307706355253248</v>
       </c>
       <c r="D7" s="2">
-        <v>130837584</v>
+        <v>129410568</v>
       </c>
       <c r="E7" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F7" s="1">
-        <v>0.026399167254567146</v>
+        <v>0.025970837101340294</v>
       </c>
       <c r="G7" s="1">
         <v>0.98000001907348633</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>4035</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B8" s="2">
-        <v>167808912</v>
+        <v>166154112</v>
       </c>
       <c r="C8" s="2">
-        <v>492058296975360</v>
+        <v>487303600406528</v>
       </c>
       <c r="D8" s="2">
-        <v>173272064</v>
+        <v>171074032</v>
       </c>
       <c r="E8" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F8" s="1">
-        <v>0.038302995264530182</v>
+        <v>0.038093611598014832</v>
       </c>
       <c r="G8" s="1">
         <v>0.99000000953674316</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>4036</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B9" s="2">
-        <v>180234720</v>
+        <v>176854560</v>
       </c>
       <c r="C9" s="2">
-        <v>528942402371584</v>
+        <v>520457728032768</v>
       </c>
       <c r="D9" s="2">
-        <v>186713376</v>
+        <v>184039248</v>
       </c>
       <c r="E9" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F9" s="1">
-        <v>0.037942692637443542</v>
+        <v>0.037830766290426254</v>
       </c>
       <c r="G9" s="1">
         <v>0.99099999666213989</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>4037</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B10" s="2">
-        <v>194437648</v>
+        <v>192303696</v>
       </c>
       <c r="C10" s="2">
-        <v>570135366598656</v>
+        <v>563275095867392</v>
       </c>
       <c r="D10" s="2">
-        <v>203173984</v>
+        <v>200457440</v>
       </c>
       <c r="E10" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F10" s="1">
-        <v>0.039643485099077225</v>
+        <v>0.039490841329097748</v>
       </c>
       <c r="G10" s="1">
         <v>0.99199998378753662</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>4038</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B11" s="2">
-        <v>213781696</v>
+        <v>211400048</v>
       </c>
       <c r="C11" s="2">
-        <v>624787281936384</v>
+        <v>616186542817280</v>
       </c>
       <c r="D11" s="2">
-        <v>224486512</v>
+        <v>221869600</v>
       </c>
       <c r="E11" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F11" s="1">
-        <v>0.040248915553092957</v>
+        <v>0.040192063897848129</v>
       </c>
       <c r="G11" s="1">
         <v>0.99299997091293335</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>4039</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B12" s="2">
-        <v>237850288</v>
+        <v>235823136</v>
       </c>
       <c r="C12" s="2">
-        <v>689036704350208</v>
+        <v>683508276133888</v>
       </c>
       <c r="D12" s="2">
-        <v>252069632</v>
+        <v>249755664</v>
       </c>
       <c r="E12" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F12" s="1">
-        <v>0.041248742491006851</v>
+        <v>0.041131149977445602</v>
       </c>
       <c r="G12" s="1">
         <v>0.99400001764297485</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>4040</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B13" s="2">
-        <v>271182144</v>
+        <v>268195072</v>
       </c>
       <c r="C13" s="2">
-        <v>780344689164288</v>
+        <v>772804941185024</v>
       </c>
       <c r="D13" s="2">
-        <v>288811872</v>
+        <v>285733760</v>
       </c>
       <c r="E13" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F13" s="1">
-        <v>0.042507611215114594</v>
+        <v>0.042227018624544144</v>
       </c>
       <c r="G13" s="1">
         <v>0.99500000476837158</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>4041</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B14" s="2">
-        <v>312586848</v>
+        <v>308191136</v>
       </c>
       <c r="C14" s="2">
-        <v>898676071333888</v>
+        <v>887940062380032</v>
       </c>
       <c r="D14" s="2">
-        <v>341732736</v>
+        <v>336968448</v>
       </c>
       <c r="E14" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F14" s="1">
-        <v>0.044773522764444351</v>
+        <v>0.044778544455766678</v>
       </c>
       <c r="G14" s="1">
         <v>0.99599999189376831</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>4042</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B15" s="2">
-        <v>381393696</v>
+        <v>374900160</v>
       </c>
       <c r="C15" s="2">
-        <v>1093599739510784</v>
+        <v>1076075400527872</v>
       </c>
       <c r="D15" s="2">
-        <v>426451616</v>
+        <v>422770432</v>
       </c>
       <c r="E15" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F15" s="1">
-        <v>0.042504429817199707</v>
+        <v>0.042678222060203552</v>
       </c>
       <c r="G15" s="1">
         <v>0.99699997901916504</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>4043</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B16" s="2">
         <v>486635104</v>
@@ -16359,7 +16359,7 @@
         <v>603374016</v>
       </c>
       <c r="E16" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F16" s="1">
         <v>0.042435552924871445</v>
@@ -16369,39 +16369,39 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>4044</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B17" s="2">
-        <v>861180480</v>
+        <v>917535040</v>
       </c>
       <c r="C17" s="2">
-        <v>2411663596716032</v>
+        <v>2552616638742528</v>
       </c>
       <c r="D17" s="2">
-        <v>889357760</v>
+        <v>949281984</v>
       </c>
       <c r="E17" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F17" s="1">
-        <v>0.038326043635606766</v>
+        <v>0.036041282117366791</v>
       </c>
       <c r="G17" s="1">
-        <v>0.99910002946853638</v>
+        <v>0.99919998645782471</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>4045</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B18" s="2">
         <v>1160227200</v>
@@ -16413,7 +16413,7 @@
         <v>1222967296</v>
       </c>
       <c r="E18" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F18" s="1">
         <v>0.035440489649772644</v>
@@ -16423,12 +16423,12 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>4046</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>48916056</v>
+        <v>49907984</v>
       </c>
       <c r="B19" s="2">
         <v>2003166976</v>
@@ -16440,7 +16440,7 @@
         <v>2272632320</v>
       </c>
       <c r="E19" s="1">
-        <v>9205261</v>
+        <v>9022305</v>
       </c>
       <c r="F19" s="1">
         <v>0.027836818248033524</v>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" t="s">
-        <v>4047</v>
+        <v>4154</v>
       </c>
     </row>
   </sheetData>
@@ -16464,51 +16464,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4048</v>
+        <v>4127</v>
       </c>
       <c r="B1" t="s">
-        <v>4049</v>
+        <v>4128</v>
       </c>
       <c r="C1" t="s">
-        <v>4050</v>
+        <v>4129</v>
       </c>
       <c r="D1" t="s">
-        <v>4051</v>
+        <v>4130</v>
       </c>
       <c r="E1" t="s">
-        <v>4052</v>
+        <v>4131</v>
       </c>
       <c r="F1" t="s">
-        <v>4053</v>
+        <v>4132</v>
       </c>
       <c r="G1" t="s">
-        <v>4054</v>
+        <v>4133</v>
       </c>
       <c r="H1" t="s">
-        <v>4055</v>
+        <v>4134</v>
       </c>
       <c r="I1" t="s">
-        <v>4056</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B2" s="2">
-        <v>26737774</v>
+        <v>23424218</v>
       </c>
       <c r="C2" s="2">
-        <v>131499332468736</v>
+        <v>128989419012096</v>
       </c>
       <c r="D2" s="2">
-        <v>35635824</v>
+        <v>32890434</v>
       </c>
       <c r="E2" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F2" s="1">
-        <v>0.00029282757895998657</v>
+        <v>0.00019328412599861622</v>
       </c>
       <c r="G2" s="1">
         <v>0.93000000715255737</v>
@@ -16517,439 +16517,439 @@
         <v>2020</v>
       </c>
       <c r="I2" t="s">
-        <v>4057</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B3" s="2">
-        <v>43400376</v>
+        <v>41204544</v>
       </c>
       <c r="C3" s="2">
-        <v>147584152764416</v>
+        <v>144964021387264</v>
       </c>
       <c r="D3" s="2">
-        <v>49649588</v>
+        <v>47991768</v>
       </c>
       <c r="E3" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0011177252745255828</v>
+        <v>0.0010371695971116424</v>
       </c>
       <c r="G3" s="1">
         <v>0.93999999761581421</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>4058</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B4" s="2">
-        <v>55085108</v>
+        <v>53827244</v>
       </c>
       <c r="C4" s="2">
-        <v>167139658956800</v>
+        <v>164480218562560</v>
       </c>
       <c r="D4" s="2">
-        <v>60780068</v>
+        <v>59509728</v>
       </c>
       <c r="E4" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0022992093581706285</v>
+        <v>0.0020796630997210741</v>
       </c>
       <c r="G4" s="1">
         <v>0.94999998807907104</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>4059</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B5" s="2">
-        <v>66963232</v>
+        <v>65681436</v>
       </c>
       <c r="C5" s="2">
-        <v>193675661410304</v>
+        <v>190671365341184</v>
       </c>
       <c r="D5" s="2">
-        <v>74044256</v>
+        <v>72707176</v>
       </c>
       <c r="E5" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0070878523401916027</v>
+        <v>0.0064491676166653633</v>
       </c>
       <c r="G5" s="1">
         <v>0.95999997854232788</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>4060</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B6" s="2">
-        <v>82592168</v>
+        <v>80948080</v>
       </c>
       <c r="C6" s="2">
-        <v>233874021941248</v>
+        <v>229889382809600</v>
       </c>
       <c r="D6" s="2">
-        <v>94091312</v>
+        <v>92520384</v>
       </c>
       <c r="E6" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F6" s="1">
-        <v>0.014659286476671696</v>
+        <v>0.014208758249878883</v>
       </c>
       <c r="G6" s="1">
         <v>0.97000002861022949</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>4061</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B7" s="2">
-        <v>107773720</v>
+        <v>106273176</v>
       </c>
       <c r="C7" s="2">
-        <v>303764212809728</v>
+        <v>299114810048512</v>
       </c>
       <c r="D7" s="2">
-        <v>131051632</v>
+        <v>129127136</v>
       </c>
       <c r="E7" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F7" s="1">
-        <v>0.02519974485039711</v>
+        <v>0.024612737819552422</v>
       </c>
       <c r="G7" s="1">
         <v>0.98000001907348633</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>4062</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B8" s="2">
-        <v>166043264</v>
+        <v>163407440</v>
       </c>
       <c r="C8" s="2">
-        <v>476481021018112</v>
+        <v>469101495451648</v>
       </c>
       <c r="D8" s="2">
-        <v>171618288</v>
+        <v>168807024</v>
       </c>
       <c r="E8" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F8" s="1">
-        <v>0.036354601383209229</v>
+        <v>0.035935267806053162</v>
       </c>
       <c r="G8" s="1">
         <v>0.99000000953674316</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>4063</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B9" s="2">
-        <v>178821456</v>
+        <v>175350608</v>
       </c>
       <c r="C9" s="2">
-        <v>512183842635776</v>
+        <v>503347819839488</v>
       </c>
       <c r="D9" s="2">
-        <v>184123440</v>
+        <v>181473680</v>
       </c>
       <c r="E9" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F9" s="1">
-        <v>0.039539515972137451</v>
+        <v>0.039048295468091965</v>
       </c>
       <c r="G9" s="1">
         <v>0.99099999666213989</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>4064</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B10" s="2">
-        <v>191601840</v>
+        <v>189182176</v>
       </c>
       <c r="C10" s="2">
-        <v>551949501988864</v>
+        <v>544776503951360</v>
       </c>
       <c r="D10" s="2">
-        <v>199142496</v>
+        <v>196409104</v>
       </c>
       <c r="E10" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F10" s="1">
-        <v>0.039734557271003723</v>
+        <v>0.039468985050916672</v>
       </c>
       <c r="G10" s="1">
         <v>0.99199998378753662</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>4065</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B11" s="2">
-        <v>208617232</v>
+        <v>205555536</v>
       </c>
       <c r="C11" s="2">
-        <v>600612387422208</v>
+        <v>591747038052352</v>
       </c>
       <c r="D11" s="2">
-        <v>219225136</v>
+        <v>215630432</v>
       </c>
       <c r="E11" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F11" s="1">
-        <v>0.040329039096832275</v>
+        <v>0.040349196642637253</v>
       </c>
       <c r="G11" s="1">
         <v>0.99299997091293335</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>4066</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B12" s="2">
-        <v>232772592</v>
+        <v>228324752</v>
       </c>
       <c r="C12" s="2">
-        <v>667615152308224</v>
+        <v>656087392976896</v>
       </c>
       <c r="D12" s="2">
-        <v>245317168</v>
+        <v>241842768</v>
       </c>
       <c r="E12" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F12" s="1">
-        <v>0.041089311242103577</v>
+        <v>0.040951218456029892</v>
       </c>
       <c r="G12" s="1">
         <v>0.99400001764297485</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>4067</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B13" s="2">
-        <v>261472896</v>
+        <v>258986656</v>
       </c>
       <c r="C13" s="2">
-        <v>749348447059968</v>
+        <v>741565764993024</v>
       </c>
       <c r="D13" s="2">
-        <v>280871040</v>
+        <v>277605088</v>
       </c>
       <c r="E13" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F13" s="1">
-        <v>0.042310137301683426</v>
+        <v>0.042162906378507614</v>
       </c>
       <c r="G13" s="1">
         <v>0.99500000476837158</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>4068</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B14" s="2">
-        <v>306194880</v>
+        <v>301453920</v>
       </c>
       <c r="C14" s="2">
-        <v>873637083086848</v>
+        <v>862197437693952</v>
       </c>
       <c r="D14" s="2">
-        <v>332052416</v>
+        <v>327048512</v>
       </c>
       <c r="E14" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F14" s="1">
-        <v>0.043519601225852966</v>
+        <v>0.043454412370920181</v>
       </c>
       <c r="G14" s="1">
         <v>0.99599999189376831</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>4069</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B15" s="2">
-        <v>367712608</v>
+        <v>361506112</v>
       </c>
       <c r="C15" s="2">
-        <v>1049290306748416</v>
+        <v>1031188093337600</v>
       </c>
       <c r="D15" s="2">
-        <v>414910464</v>
+        <v>406348192</v>
       </c>
       <c r="E15" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F15" s="1">
-        <v>0.042723853141069412</v>
+        <v>0.043395821005105972</v>
       </c>
       <c r="G15" s="1">
         <v>0.99699997901916504</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>4070</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B16" s="2">
-        <v>480766624</v>
+        <v>472814624</v>
       </c>
       <c r="C16" s="2">
-        <v>1392909970571264</v>
+        <v>1356109885472768</v>
       </c>
       <c r="D16" s="2">
-        <v>585792512</v>
+        <v>577102720</v>
       </c>
       <c r="E16" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F16" s="1">
-        <v>0.043087687343358994</v>
+        <v>0.042551234364509583</v>
       </c>
       <c r="G16" s="1">
         <v>0.99800002574920654</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>4071</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B17" s="2">
-        <v>832625024</v>
+        <v>892550592</v>
       </c>
       <c r="C17" s="2">
-        <v>2329171770474496</v>
+        <v>2478811383857152</v>
       </c>
       <c r="D17" s="2">
-        <v>862591552</v>
+        <v>926653504</v>
       </c>
       <c r="E17" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F17" s="1">
-        <v>0.039046429097652435</v>
+        <v>0.038732953369617462</v>
       </c>
       <c r="G17" s="1">
-        <v>0.99910002946853638</v>
+        <v>0.99919998645782471</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>4072</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>49427860</v>
+        <v>50629996</v>
       </c>
       <c r="B18" s="2">
-        <v>1311814656</v>
+        <v>1512953344</v>
       </c>
       <c r="C18" s="2">
-        <v>3453692992815104</v>
+        <v>3882025517842432</v>
       </c>
       <c r="D18" s="2">
-        <v>1412396672</v>
+        <v>1663393664</v>
       </c>
       <c r="E18" s="1">
-        <v>9344756</v>
+        <v>9122878</v>
       </c>
       <c r="F18" s="1">
-        <v>0.033884212374687195</v>
+        <v>0.032354135066270828</v>
       </c>
       <c r="G18" s="1">
-        <v>0.99949997663497925</v>
+        <v>0.99959999322891235</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>4073</v>
+        <v>4154</v>
       </c>
     </row>
   </sheetData>
@@ -16963,51 +16963,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4074</v>
+        <v>4127</v>
       </c>
       <c r="B1" t="s">
-        <v>4075</v>
+        <v>4128</v>
       </c>
       <c r="C1" t="s">
-        <v>4076</v>
+        <v>4129</v>
       </c>
       <c r="D1" t="s">
-        <v>4077</v>
+        <v>4130</v>
       </c>
       <c r="E1" t="s">
-        <v>4078</v>
+        <v>4131</v>
       </c>
       <c r="F1" t="s">
-        <v>4079</v>
+        <v>4132</v>
       </c>
       <c r="G1" t="s">
-        <v>4080</v>
+        <v>4133</v>
       </c>
       <c r="H1" t="s">
-        <v>4081</v>
+        <v>4134</v>
       </c>
       <c r="I1" t="s">
-        <v>4082</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B2" s="2">
-        <v>24487580</v>
+        <v>19716958</v>
       </c>
       <c r="C2" s="2">
-        <v>140595343392768</v>
+        <v>137635775381504</v>
       </c>
       <c r="D2" s="2">
-        <v>33585080</v>
+        <v>30177604</v>
       </c>
       <c r="E2" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0001277549599763006</v>
+        <v>8.0401368904858828e-05</v>
       </c>
       <c r="G2" s="1">
         <v>0.92000001668930054</v>
@@ -17016,439 +17016,439 @@
         <v>2021</v>
       </c>
       <c r="I2" t="s">
-        <v>4083</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B3" s="2">
-        <v>41315524</v>
+        <v>39090684</v>
       </c>
       <c r="C3" s="2">
-        <v>155999201656832</v>
+        <v>153119862292480</v>
       </c>
       <c r="D3" s="2">
-        <v>47759168</v>
+        <v>45692416</v>
       </c>
       <c r="E3" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0010089754359796643</v>
+        <v>0.00087420956697314978</v>
       </c>
       <c r="G3" s="1">
         <v>0.93000000715255737</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>4084</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B4" s="2">
-        <v>53464612</v>
+        <v>51972612</v>
       </c>
       <c r="C4" s="2">
-        <v>174012562931712</v>
+        <v>170990717894656</v>
       </c>
       <c r="D4" s="2">
-        <v>58663004</v>
+        <v>57185160</v>
       </c>
       <c r="E4" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0018330643652006984</v>
+        <v>0.0016448065871372819</v>
       </c>
       <c r="G4" s="1">
         <v>0.93999999761581421</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>4085</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B5" s="2">
-        <v>64255372</v>
+        <v>62772184</v>
       </c>
       <c r="C5" s="2">
-        <v>197041640701952</v>
+        <v>193788068757504</v>
       </c>
       <c r="D5" s="2">
-        <v>70312568</v>
+        <v>68909736</v>
       </c>
       <c r="E5" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F5" s="1">
-        <v>0.004526535514742136</v>
+        <v>0.0040396973490715027</v>
       </c>
       <c r="G5" s="1">
         <v>0.94999998807907104</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>4086</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B6" s="2">
-        <v>77040608</v>
+        <v>75572328</v>
       </c>
       <c r="C6" s="2">
-        <v>228652230901760</v>
+        <v>225008337027072</v>
       </c>
       <c r="D6" s="2">
-        <v>85568376</v>
+        <v>83965392</v>
       </c>
       <c r="E6" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F6" s="1">
-        <v>0.010869043879210949</v>
+        <v>0.010267076082527637</v>
       </c>
       <c r="G6" s="1">
         <v>0.95999997854232788</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>4087</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B7" s="2">
-        <v>95614536</v>
+        <v>93875528</v>
       </c>
       <c r="C7" s="2">
-        <v>276772037853184</v>
+        <v>272021703360512</v>
       </c>
       <c r="D7" s="2">
-        <v>108914864</v>
+        <v>107024520</v>
       </c>
       <c r="E7" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0164165198802948</v>
+        <v>0.016192479059100151</v>
       </c>
       <c r="G7" s="1">
         <v>0.97000002861022949</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>4088</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B8" s="2">
-        <v>124804976</v>
+        <v>122978888</v>
       </c>
       <c r="C8" s="2">
-        <v>360700916531200</v>
+        <v>354520693473280</v>
       </c>
       <c r="D8" s="2">
-        <v>153698064</v>
+        <v>151042368</v>
       </c>
       <c r="E8" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F8" s="1">
-        <v>0.028065985068678856</v>
+        <v>0.027287563309073448</v>
       </c>
       <c r="G8" s="1">
         <v>0.98000001907348633</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>4089</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B9" s="2">
-        <v>198073536</v>
+        <v>194390128</v>
       </c>
       <c r="C9" s="2">
-        <v>567707166572544</v>
+        <v>558001010245632</v>
       </c>
       <c r="D9" s="2">
-        <v>204535568</v>
+        <v>201328912</v>
       </c>
       <c r="E9" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F9" s="1">
-        <v>0.035862356424331665</v>
+        <v>0.035707730799913406</v>
       </c>
       <c r="G9" s="1">
         <v>0.99000000953674316</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>4090</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B10" s="2">
-        <v>212911104</v>
+        <v>209776624</v>
       </c>
       <c r="C10" s="2">
-        <v>607260996796416</v>
+        <v>599547436859392</v>
       </c>
       <c r="D10" s="2">
-        <v>220525760</v>
+        <v>216720288</v>
       </c>
       <c r="E10" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F10" s="1">
-        <v>0.038545083254575729</v>
+        <v>0.038448680192232132</v>
       </c>
       <c r="G10" s="1">
         <v>0.99099999666213989</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>4091</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B11" s="2">
-        <v>231670896</v>
+        <v>225968032</v>
       </c>
       <c r="C11" s="2">
-        <v>659406597390336</v>
+        <v>645328231464960</v>
       </c>
       <c r="D11" s="2">
-        <v>240702736</v>
+        <v>236014032</v>
       </c>
       <c r="E11" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F11" s="1">
-        <v>0.037583261728286743</v>
+        <v>0.037427116185426712</v>
       </c>
       <c r="G11" s="1">
         <v>0.99199998378753662</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>4092</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B12" s="2">
-        <v>252695824</v>
+        <v>248150000</v>
       </c>
       <c r="C12" s="2">
-        <v>718451526074368</v>
+        <v>706727070662656</v>
       </c>
       <c r="D12" s="2">
-        <v>264875696</v>
+        <v>259975184</v>
       </c>
       <c r="E12" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F12" s="1">
-        <v>0.037961602210998535</v>
+        <v>0.038127351552248001</v>
       </c>
       <c r="G12" s="1">
         <v>0.99299997091293335</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>4093</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B13" s="2">
-        <v>280405824</v>
+        <v>275176256</v>
       </c>
       <c r="C13" s="2">
-        <v>792921762693120</v>
+        <v>777947761868800</v>
       </c>
       <c r="D13" s="2">
-        <v>295805952</v>
+        <v>291150272</v>
       </c>
       <c r="E13" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0380265973508358</v>
+        <v>0.0380881167948246</v>
       </c>
       <c r="G13" s="1">
         <v>0.99400001764297485</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>4094</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B14" s="2">
-        <v>315611040</v>
+        <v>312759104</v>
       </c>
       <c r="C14" s="2">
-        <v>890571199610880</v>
+        <v>880432392437760</v>
       </c>
       <c r="D14" s="2">
-        <v>339003712</v>
+        <v>332422048</v>
       </c>
       <c r="E14" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F14" s="1">
-        <v>0.039297420531511307</v>
+        <v>0.039030194282531738</v>
       </c>
       <c r="G14" s="1">
         <v>0.99500000476837158</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>4095</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B15" s="2">
-        <v>370544768</v>
+        <v>359743968</v>
       </c>
       <c r="C15" s="2">
-        <v>1040993839218688</v>
+        <v>1011477280456704</v>
       </c>
       <c r="D15" s="2">
-        <v>400560736</v>
+        <v>391293984</v>
       </c>
       <c r="E15" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F15" s="1">
-        <v>0.03943464532494545</v>
+        <v>0.039468638598918915</v>
       </c>
       <c r="G15" s="1">
         <v>0.99599999189376831</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>4096</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B16" s="2">
-        <v>443688992</v>
+        <v>434804704</v>
       </c>
       <c r="C16" s="2">
-        <v>1254474450468864</v>
+        <v>1230367604342784</v>
       </c>
       <c r="D16" s="2">
-        <v>491970720</v>
+        <v>481066080</v>
       </c>
       <c r="E16" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F16" s="1">
-        <v>0.039018254727125168</v>
+        <v>0.038846038281917572</v>
       </c>
       <c r="G16" s="1">
         <v>0.99699997901916504</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>4097</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B17" s="2">
-        <v>572480640</v>
+        <v>554763392</v>
       </c>
       <c r="C17" s="2">
-        <v>1635734133932032</v>
+        <v>1588737125384192</v>
       </c>
       <c r="D17" s="2">
-        <v>702925248</v>
+        <v>690578880</v>
       </c>
       <c r="E17" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F17" s="1">
-        <v>0.039045151323080063</v>
+        <v>0.039221204817295074</v>
       </c>
       <c r="G17" s="1">
         <v>0.99800002574920654</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>4098</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>49916752</v>
+        <v>51188172</v>
       </c>
       <c r="B18" s="2">
-        <v>1000313792</v>
+        <v>1176645120</v>
       </c>
       <c r="C18" s="2">
-        <v>2731717580292096</v>
+        <v>3154844336521216</v>
       </c>
       <c r="D18" s="2">
-        <v>1039353280</v>
+        <v>1241170432</v>
       </c>
       <c r="E18" s="1">
-        <v>11356063</v>
+        <v>11073999</v>
       </c>
       <c r="F18" s="1">
-        <v>0.036430574953556061</v>
+        <v>0.035288237035274506</v>
       </c>
       <c r="G18" s="1">
-        <v>0.99910002946853638</v>
+        <v>0.99930000305175781</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>4099</v>
+        <v>4154</v>
       </c>
     </row>
   </sheetData>
@@ -17462,51 +17462,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4100</v>
+        <v>4127</v>
       </c>
       <c r="B1" t="s">
-        <v>4101</v>
+        <v>4128</v>
       </c>
       <c r="C1" t="s">
-        <v>4102</v>
+        <v>4129</v>
       </c>
       <c r="D1" t="s">
-        <v>4103</v>
+        <v>4130</v>
       </c>
       <c r="E1" t="s">
-        <v>4104</v>
+        <v>4131</v>
       </c>
       <c r="F1" t="s">
-        <v>4105</v>
+        <v>4132</v>
       </c>
       <c r="G1" t="s">
-        <v>4106</v>
+        <v>4133</v>
       </c>
       <c r="H1" t="s">
-        <v>4107</v>
+        <v>4134</v>
       </c>
       <c r="I1" t="s">
-        <v>4108</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B2" s="2">
-        <v>21831060</v>
+        <v>15283894</v>
       </c>
       <c r="C2" s="2">
-        <v>144294040043520</v>
+        <v>140274797903872</v>
       </c>
       <c r="D2" s="2">
-        <v>29599312</v>
+        <v>24512558</v>
       </c>
       <c r="E2" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F2" s="1">
-        <v>6.2500745116267353e-05</v>
+        <v>6.8241977714933455e-05</v>
       </c>
       <c r="G2" s="1">
         <v>0.89999997615814209</v>
@@ -17515,444 +17515,444 @@
         <v>2022</v>
       </c>
       <c r="I2" t="s">
-        <v>4109</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B3" s="2">
-        <v>36607964</v>
+        <v>32545022</v>
       </c>
       <c r="C3" s="2">
-        <v>157053767122944</v>
+        <v>152999703871488</v>
       </c>
       <c r="D3" s="2">
-        <v>41952088</v>
+        <v>38786960</v>
       </c>
       <c r="E3" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0003529805107973516</v>
+        <v>0.00017089891480281949</v>
       </c>
       <c r="G3" s="1">
         <v>0.9100000262260437</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>4110</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B4" s="2">
-        <v>47096920</v>
+        <v>44248684</v>
       </c>
       <c r="C4" s="2">
-        <v>171461503352832</v>
+        <v>167276963692544</v>
       </c>
       <c r="D4" s="2">
-        <v>51940924</v>
+        <v>49464392</v>
       </c>
       <c r="E4" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0010553398169577122</v>
+        <v>0.00095447583589702845</v>
       </c>
       <c r="G4" s="1">
         <v>0.92000001668930054</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>4111</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B5" s="2">
-        <v>56340960</v>
+        <v>54415532</v>
       </c>
       <c r="C5" s="2">
-        <v>188560237920256</v>
+        <v>184106826596352</v>
       </c>
       <c r="D5" s="2">
-        <v>60681672</v>
+        <v>58695224</v>
       </c>
       <c r="E5" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0016341143054887652</v>
+        <v>0.0014170990325510502</v>
       </c>
       <c r="G5" s="1">
         <v>0.93000000715255737</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>4112</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B6" s="2">
-        <v>65334260</v>
+        <v>63338516</v>
       </c>
       <c r="C6" s="2">
-        <v>209914949533696</v>
+        <v>205008821813248</v>
       </c>
       <c r="D6" s="2">
-        <v>70549120</v>
+        <v>68503848</v>
       </c>
       <c r="E6" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F6" s="1">
-        <v>0.003397343447431922</v>
+        <v>0.0029191931243985891</v>
       </c>
       <c r="G6" s="1">
         <v>0.93999999761581421</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>4113</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B7" s="2">
-        <v>76279352</v>
+        <v>74171048</v>
       </c>
       <c r="C7" s="2">
-        <v>237849165168640</v>
+        <v>232311073275904</v>
       </c>
       <c r="D7" s="2">
-        <v>82724856</v>
+        <v>80582528</v>
       </c>
       <c r="E7" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0077865933999419212</v>
+        <v>0.0069512599147856236</v>
       </c>
       <c r="G7" s="1">
         <v>0.94999998807907104</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>4114</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B8" s="2">
-        <v>90125712</v>
+        <v>87814584</v>
       </c>
       <c r="C8" s="2">
-        <v>276736772145152</v>
+        <v>270242009841664</v>
       </c>
       <c r="D8" s="2">
-        <v>99661480</v>
+        <v>97120968</v>
       </c>
       <c r="E8" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F8" s="1">
-        <v>0.013378267176449299</v>
+        <v>0.012673679739236832</v>
       </c>
       <c r="G8" s="1">
         <v>0.95999997854232788</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>4115</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B9" s="2">
-        <v>111099608</v>
+        <v>108445040</v>
       </c>
       <c r="C9" s="2">
-        <v>335978413686784</v>
+        <v>327946287972352</v>
       </c>
       <c r="D9" s="2">
-        <v>125453424</v>
+        <v>122536856</v>
       </c>
       <c r="E9" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F9" s="1">
-        <v>0.018265215680003166</v>
+        <v>0.0176820307970047</v>
       </c>
       <c r="G9" s="1">
         <v>0.97000002861022949</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>4116</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B10" s="2">
-        <v>144007760</v>
+        <v>140202672</v>
       </c>
       <c r="C10" s="2">
-        <v>441824359481344</v>
+        <v>430654827266048</v>
       </c>
       <c r="D10" s="2">
-        <v>178421136</v>
+        <v>173636640</v>
       </c>
       <c r="E10" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F10" s="1">
-        <v>0.03089524433016777</v>
+        <v>0.029986109584569931</v>
       </c>
       <c r="G10" s="1">
         <v>0.98000001907348633</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>4117</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B11" s="2">
-        <v>231701152</v>
+        <v>224493488</v>
       </c>
       <c r="C11" s="2">
-        <v>708154274873344</v>
+        <v>687675937914880</v>
       </c>
       <c r="D11" s="2">
-        <v>238091952</v>
+        <v>231998624</v>
       </c>
       <c r="E11" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F11" s="1">
-        <v>0.039063908159732819</v>
+        <v>0.038103219121694565</v>
       </c>
       <c r="G11" s="1">
         <v>0.99000000953674316</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>4118</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B12" s="2">
-        <v>247846912</v>
+        <v>240834768</v>
       </c>
       <c r="C12" s="2">
-        <v>760382956240896</v>
+        <v>741920770883584</v>
       </c>
       <c r="D12" s="2">
-        <v>256705408</v>
+        <v>250045152</v>
       </c>
       <c r="E12" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F12" s="1">
-        <v>0.038764826953411102</v>
+        <v>0.038776542991399765</v>
       </c>
       <c r="G12" s="1">
         <v>0.99099999666213989</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>4119</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B13" s="2">
-        <v>268956768</v>
+        <v>261186608</v>
       </c>
       <c r="C13" s="2">
-        <v>823340600131584</v>
+        <v>800949123678208</v>
       </c>
       <c r="D13" s="2">
-        <v>279727296</v>
+        <v>272856352</v>
       </c>
       <c r="E13" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F13" s="1">
-        <v>0.038450673222541809</v>
+        <v>0.038754470646381378</v>
       </c>
       <c r="G13" s="1">
         <v>0.99199998378753662</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>4120</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B14" s="2">
-        <v>294084160</v>
+        <v>288389152</v>
       </c>
       <c r="C14" s="2">
-        <v>901003876499456</v>
+        <v>882192053960704</v>
       </c>
       <c r="D14" s="2">
-        <v>308325248</v>
+        <v>301375360</v>
       </c>
       <c r="E14" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F14" s="1">
-        <v>0.03900706022977829</v>
+        <v>0.038759030401706696</v>
       </c>
       <c r="G14" s="1">
         <v>0.99299997091293335</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>4121</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B15" s="2">
-        <v>327036032</v>
+        <v>319067168</v>
       </c>
       <c r="C15" s="2">
-        <v>999782956924928</v>
+        <v>975536658579456</v>
       </c>
       <c r="D15" s="2">
-        <v>345079232</v>
+        <v>336022240</v>
       </c>
       <c r="E15" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F15" s="1">
-        <v>0.039512120187282562</v>
+        <v>0.039494961500167847</v>
       </c>
       <c r="G15" s="1">
         <v>0.99400001764297485</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>4122</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B16" s="2">
-        <v>370138592</v>
+        <v>358994720</v>
       </c>
       <c r="C16" s="2">
-        <v>1130725839470592</v>
+        <v>1098001275682816</v>
       </c>
       <c r="D16" s="2">
-        <v>394159360</v>
+        <v>385047616</v>
       </c>
       <c r="E16" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F16" s="1">
-        <v>0.038732919842004776</v>
+        <v>0.0388900525867939</v>
       </c>
       <c r="G16" s="1">
         <v>0.99500000476837158</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>4123</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B17" s="2">
-        <v>427515840</v>
+        <v>420368192</v>
       </c>
       <c r="C17" s="2">
-        <v>1314866522488832</v>
+        <v>1290686393483264</v>
       </c>
       <c r="D17" s="2">
-        <v>461393152</v>
+        <v>453134048</v>
       </c>
       <c r="E17" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F17" s="1">
-        <v>0.037512298673391342</v>
+        <v>0.037185985594987869</v>
       </c>
       <c r="G17" s="1">
         <v>0.99599999189376831</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>4124</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B18" s="2">
-        <v>508090560</v>
+        <v>494700384</v>
       </c>
       <c r="C18" s="2">
-        <v>1599355760934912</v>
+        <v>1559910110199808</v>
       </c>
       <c r="D18" s="2">
-        <v>576582976</v>
+        <v>568396096</v>
       </c>
       <c r="E18" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F18" s="1">
-        <v>0.042418312281370163</v>
+        <v>0.04241643100976944</v>
       </c>
       <c r="G18" s="1">
         <v>0.99699997901916504</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>4125</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>50040056</v>
+        <v>51737944</v>
       </c>
       <c r="B19" s="2">
         <v>686472512</v>
@@ -17964,7 +17964,7 @@
         <v>849366016</v>
       </c>
       <c r="E19" s="1">
-        <v>14531521</v>
+        <v>14054639</v>
       </c>
       <c r="F19" s="1">
         <v>0.039649184793233871</v>
@@ -17974,7 +17974,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" t="s">
-        <v>4126</v>
+        <v>4154</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/admin_data/COL/_clean/total-pos-COL.xlsx
+++ b/input_data/admin_data/COL/_clean/total-pos-COL.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="4155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4986" uniqueCount="4155">
   <si>
     <t>poptot</t>
   </si>
